--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1878403.760967019</v>
+        <v>1982583.395418091</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.20265719668435</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>15.03347606442382</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -826,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>3.404778134235101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>149.8466170220497</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>165.7060625238162</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>184.1477353216929</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>26.8608802426169</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>220.0459597350799</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>33.2155532415954</v>
       </c>
       <c r="D8" t="n">
-        <v>59.80165496339816</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1192,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>75.17667930880884</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>162.6734892616546</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.2440807643131</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>185.4555778410735</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>120.6127326838975</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>7.602497644399961</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>95.25381996636069</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>19.51567534720954</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2105855891493</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6356839950568</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.8253826161918028</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>88.27810958517533</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>119.6760079449695</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>127.1477159870288</v>
       </c>
       <c r="W31" t="n">
-        <v>98.79136808967674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>114.2935157990533</v>
       </c>
       <c r="T34" t="n">
-        <v>32.27552175740432</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>194.5872785643526</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.96386702300599</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>95.81917536083702</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>134.4525633547279</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>132.8121873168109</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>99.39152647956271</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>143.2091541404067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223197</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>883.8708262827852</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287319</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686093</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064768</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080147</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986321</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>1525.704024291645</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>554.5033994003252</v>
+        <v>1928.562613961073</v>
       </c>
       <c r="C4" t="n">
-        <v>385.5672164724183</v>
+        <v>1759.626431033166</v>
       </c>
       <c r="D4" t="n">
-        <v>385.5672164724183</v>
+        <v>1759.626431033166</v>
       </c>
       <c r="E4" t="n">
-        <v>237.6541228900252</v>
+        <v>1611.713337450773</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348675</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102585</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456658</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3133.919937435999</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>2982.559718221807</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>2693.456851347451</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>2438.772363141564</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983425</v>
+        <v>2149.355193104603</v>
       </c>
       <c r="X4" t="n">
-        <v>554.5033994003252</v>
+        <v>2149.355193104603</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.5033994003252</v>
+        <v>1928.562613961073</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3139.598008152917</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>3139.598008152917</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3452334219998</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219998</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4753,22 +4755,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1810.331888580751</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1521.229021706395</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V7" t="n">
-        <v>1266.544533500508</v>
+        <v>1104.32596234414</v>
       </c>
       <c r="W7" t="n">
-        <v>977.1273634635472</v>
+        <v>1104.32596234414</v>
       </c>
       <c r="X7" t="n">
-        <v>749.1378125655299</v>
+        <v>1104.32596234414</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.3452334219998</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.723851760222</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1380.761334819811</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267228</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997114</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736034</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760222</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.8809675997582</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C10" t="n">
-        <v>532.8809675997582</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W10" t="n">
-        <v>935.322011573528</v>
+        <v>1005.010447216633</v>
       </c>
       <c r="X10" t="n">
-        <v>935.322011573528</v>
+        <v>777.020896318616</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.5294324299979</v>
+        <v>777.020896318616</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683283</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>3060.83890577277</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M15" t="n">
-        <v>3658.217393399322</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N15" t="n">
-        <v>3658.217393399322</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683283</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5554335404214</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>754.5554335404214</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>606.6423399580283</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029403</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1053.171308869725</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C19" t="n">
-        <v>884.2351259418183</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D19" t="n">
-        <v>734.1184865294825</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>586.2053929470894</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>439.315445449179</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>272.119346164059</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.601903741512</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.612352843495</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.819773699965</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,34 +5740,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2906.022356843753</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>2737.086173915846</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2586.969534503511</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2586.969534503511</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4589.231301591249</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4369.62983661419</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4080.554609958388</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V22" t="n">
-        <v>3825.870121752501</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W22" t="n">
-        <v>3536.452951715541</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X22" t="n">
-        <v>3308.463400817523</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>3087.670821673993</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5984,28 +5986,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>265.0731740618515</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>265.0731740618515</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2326.07822707019</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2106.476762093131</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.401535437329</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1562.717047231442</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>1273.299877194481</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529338</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W31" t="n">
-        <v>1333.912104952176</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118214</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>2716.927329289435</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>3212.252935505193</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>3809.631423131745</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3194.624135499465</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>3025.687952571558</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.571313159222</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.469384076044</v>
       </c>
       <c r="T34" t="n">
-        <v>4658.231615269901</v>
+        <v>2044.867919098985</v>
       </c>
       <c r="U34" t="n">
-        <v>4369.156388614099</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V34" t="n">
-        <v>4114.471900408213</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W34" t="n">
-        <v>3825.054730371252</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X34" t="n">
-        <v>3597.065179473234</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.272600329704</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,16 +7022,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3091.514342801865</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801865</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.397703389529</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807136</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309225</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>2000.509738856908</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1711.434512201106</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1456.750023995219</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430191</v>
+        <v>1167.332853958259</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532174</v>
+        <v>939.3433030602412</v>
       </c>
       <c r="Y37" t="n">
-        <v>3091.514342801865</v>
+        <v>718.550723916711</v>
       </c>
     </row>
     <row r="38">
@@ -7154,64 +7156,64 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591808</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
@@ -7327,55 +7329,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2311.15241352498</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,7 +7447,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.10905366816</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>922.1728707402528</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>772.0562313279171</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>624.143137745524</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>477.2531902476136</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0570909624935</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.757518498399</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1272.757518498399</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346702</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.00274033431475</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>40.25407754796362</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.8083153390337</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>218.1071577446372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>45.04089287986319</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>267.0073229893815</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>146.8157004124953</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>180.5487903941874</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303774</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>52.01660326104856</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>32.89260457059963</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>61.35027805667508</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="W31" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>66.73277020259125</v>
       </c>
       <c r="T34" t="n">
-        <v>185.1299285698839</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>22.81817176293563</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.6207863290888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>50.61478728573215</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.57372264691665</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482525529412982</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.37549921168812</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>872462.9057627071</v>
+        <v>872462.905762707</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049984</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830046</v>
@@ -26341,16 +26343,16 @@
         <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830043</v>
@@ -26366,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.0670231447</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231447</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179344</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="N4" t="n">
         <v>11167.03225179352</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179356</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179357</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179357</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952303.5144071323</v>
+        <v>-952303.5144071321</v>
       </c>
       <c r="C6" t="n">
-        <v>376441.2313204604</v>
+        <v>376441.2313204602</v>
       </c>
       <c r="D6" t="n">
         <v>376441.2313204604</v>
       </c>
       <c r="E6" t="n">
-        <v>127300.5958999486</v>
+        <v>127300.5958999482</v>
       </c>
       <c r="F6" t="n">
-        <v>452713.057707304</v>
+        <v>452713.0577073036</v>
       </c>
       <c r="G6" t="n">
-        <v>452713.0577073038</v>
+        <v>452713.0577073037</v>
       </c>
       <c r="H6" t="n">
-        <v>452713.0577073037</v>
+        <v>452713.0577073041</v>
       </c>
       <c r="I6" t="n">
         <v>452713.0577073038</v>
@@ -26549,13 +26551,13 @@
         <v>452713.057707304</v>
       </c>
       <c r="L6" t="n">
-        <v>452713.0577073038</v>
+        <v>452713.057707304</v>
       </c>
       <c r="M6" t="n">
-        <v>367658.0297717921</v>
+        <v>367658.0297717923</v>
       </c>
       <c r="N6" t="n">
-        <v>452713.0577073041</v>
+        <v>452713.0577073036</v>
       </c>
       <c r="O6" t="n">
         <v>452713.0577073038</v>
@@ -26738,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>299.4803844239986</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>334.2074926529892</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0162698886961</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.70233225411951</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>199.5668292471914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>66.84743663720909</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>192.6880690335523</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>32.09168358874808</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>332.0573385294122</v>
       </c>
       <c r="D8" t="n">
-        <v>294.8813866572848</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>73.43879370940351</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>123.8495090749364</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226047</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>314.1059622342718</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>539.0475940357389</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>316.6133175811573</v>
+        <v>409.0029787211712</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>744.5154887882966</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>730.4561889249555</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709955</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>342.516458763847</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>176.2645232599128</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>396.4513495912944</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>174.479283659139</v>
+        <v>266.8689447991529</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>602.3814548662783</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>599.1144768416223</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>189.5729943876622</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>57.74979223202579</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1978570.785404098</v>
+        <v>1980331.315706884</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.6407719183043</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>94.81275980261439</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>173.6345819532982</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.2594250626519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>394.2071006265874</v>
+        <v>28.93420885557987</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>57.38876412871218</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1192,10 +1192,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>297.4419710579489</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.074694038229</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>60.86846495359832</v>
       </c>
       <c r="T13" t="n">
-        <v>212.8988206105702</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.9025715636457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>96.99837838564396</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>43.73846614325537</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>171.697189621454</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.0175085755469</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740432</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>192.7715349547541</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="38">
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>124.5931157466106</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4315,67 +4315,67 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1751.906081469</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1462.803214594643</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088492</v>
+        <v>1462.803214594643</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051531</v>
+        <v>1173.386044557682</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153514</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4546,13 +4546,13 @@
         <v>921.7704558796247</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796247</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796247</v>
+        <v>552.807938939213</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796247</v>
+        <v>552.807938939213</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4637,7 +4637,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
@@ -4646,13 +4646,13 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218339</v>
@@ -4728,13 +4728,13 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="C8" t="n">
         <v>1678.62132134232</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2455.360493382254</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2455.360493382254</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X8" t="n">
-        <v>2455.360493382254</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.424878447885</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>996.4353275498672</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2385.479785647333</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.058935487114</v>
+        <v>2165.878320670274</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.983708831312</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.299220625425</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.3728552556131</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="20">
@@ -5743,25 +5743,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6016,7 +6016,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.316474524626</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>551.2636521843833</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>403.3505586019902</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>256.4606111040798</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396413</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396413</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354866</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>215.8238677453423</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>215.8238677453423</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2321.111451512978</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2101.509986535919</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1812.434759880117</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1557.75027167423</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1268.333101637269</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1040.343550739252</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-1.063451355892333e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671011793</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>120.1578210480463</v>
       </c>
       <c r="T13" t="n">
-        <v>4.506629716718038</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>62.35543909864916</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.6820817884453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>68.52575990662488</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>137.2878198583892</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>80.44045370237396</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>4.506629716721989</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>185.1299285698839</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.73700564187209</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>24.63391537253412</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>56.43317025503404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
@@ -26325,37 +26325,37 @@
         <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314492</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179349</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="H4" t="n">
-        <v>11167.03225179355</v>
-      </c>
       <c r="I4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179346</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952303.5144071318</v>
+        <v>-952303.5144071321</v>
       </c>
       <c r="C6" t="n">
-        <v>376441.2313204602</v>
+        <v>376441.2313204603</v>
       </c>
       <c r="D6" t="n">
-        <v>376441.2313204602</v>
+        <v>376441.2313204604</v>
       </c>
       <c r="E6" t="n">
-        <v>126953.2166455916</v>
+        <v>127265.8579745128</v>
       </c>
       <c r="F6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818683</v>
       </c>
       <c r="G6" t="n">
-        <v>452365.6784529467</v>
+        <v>452678.3197818684</v>
       </c>
       <c r="H6" t="n">
-        <v>452365.6784529471</v>
+        <v>452678.3197818683</v>
       </c>
       <c r="I6" t="n">
-        <v>452365.6784529469</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="J6" t="n">
-        <v>234834.4760556695</v>
+        <v>235147.1173845908</v>
       </c>
       <c r="K6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818683</v>
       </c>
       <c r="L6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818684</v>
       </c>
       <c r="M6" t="n">
-        <v>367310.6505174349</v>
+        <v>367623.2918463564</v>
       </c>
       <c r="N6" t="n">
-        <v>452365.6784529467</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="O6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.319781868</v>
       </c>
       <c r="P6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818681</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.09306974517631</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>270.4601319683932</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>45.91436732287104</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>83.32522828944289</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>12.66894511512402</v>
+        <v>377.9418368861316</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>206.5217571557729</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>307.8841276422954</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>30.31028741218603</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,16 +28061,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.50995931386578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066212</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
